--- a/RESULTS/result_without_prep.xlsx
+++ b/RESULTS/result_without_prep.xlsx
@@ -60,154 +60,154 @@
     <t>Nbr_sts_used</t>
   </si>
   <si>
-    <t>75FL_7A_3D_1</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_2</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_3</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_4</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_5</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_6</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_7</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_8</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_9</t>
-  </si>
-  <si>
-    <t>75FL_7A_3D_10</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_1</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_2</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_3</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_4</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_5</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_6</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_7</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_8</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_9</t>
-  </si>
-  <si>
-    <t>76FL_7A_3D_10</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_1</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_2</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_3</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_4</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_5</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_6</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_7</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_8</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_9</t>
-  </si>
-  <si>
-    <t>78FL_7A_3D_10</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_1</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_2</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_3</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_4</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_5</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_6</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_7</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_8</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_9</t>
-  </si>
-  <si>
-    <t>86FL_7A_3D_10</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_1</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_2</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_3</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_4</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_5</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_6</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_7</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_8</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_9</t>
-  </si>
-  <si>
-    <t>89FL_7A_3D_10</t>
+    <t>158FL_7A_7D_1</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_2</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_3</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_4</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_5</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_6</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_7</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_8</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_9</t>
+  </si>
+  <si>
+    <t>158FL_7A_7D_10</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_1</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_2</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_3</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_4</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_5</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_6</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_7</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_8</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_9</t>
+  </si>
+  <si>
+    <t>163FL_7A_7D_10</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_1</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_2</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_3</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_4</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_5</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_6</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_7</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_8</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_9</t>
+  </si>
+  <si>
+    <t>173FL_7A_7D_10</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_1</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_2</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_3</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_4</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_5</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_6</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_7</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_8</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_9</t>
+  </si>
+  <si>
+    <t>181FL_7A_7D_10</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_1</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_2</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_3</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_4</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_5</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_6</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_7</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_8</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_9</t>
+  </si>
+  <si>
+    <t>185FL_7A_7D_10</t>
   </si>
 </sst>
 </file>
@@ -611,28 +611,28 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1420.0</v>
+        <v>28759.6006676648</v>
       </c>
       <c r="E2">
-        <v>1420.0</v>
+        <v>28759.6006676648</v>
       </c>
       <c r="F2">
         <v>0.0</v>
       </c>
       <c r="G2">
-        <v>2937</v>
+        <v>13094</v>
       </c>
       <c r="H2">
-        <v>0.7502</v>
+        <v>2.0839</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -646,28 +646,28 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>32720.0</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>32720.0</v>
       </c>
       <c r="F3">
         <v>0.0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>81857</v>
       </c>
       <c r="H3">
-        <v>0.0373</v>
+        <v>11.1863</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4440.0</v>
+        <v>27980.0</v>
       </c>
       <c r="E4">
-        <v>4440.0</v>
+        <v>27979.999999988737</v>
       </c>
       <c r="F4">
         <v>0.0</v>
       </c>
       <c r="G4">
-        <v>15186</v>
+        <v>21331</v>
       </c>
       <c r="H4">
-        <v>1.0834</v>
+        <v>2.3176</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -702,7 +702,7 @@
         <v>3.0</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -716,28 +716,28 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5460.0</v>
+        <v>35640.0</v>
       </c>
       <c r="E5">
-        <v>5460.0</v>
+        <v>35640.0</v>
       </c>
       <c r="F5">
         <v>0.0</v>
       </c>
       <c r="G5">
-        <v>13033</v>
+        <v>46457</v>
       </c>
       <c r="H5">
-        <v>1.304</v>
+        <v>6.4033</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -751,28 +751,28 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6180.0</v>
+        <v>22639.999997732033</v>
       </c>
       <c r="E6">
-        <v>6180.0</v>
+        <v>22639.999997732033</v>
       </c>
       <c r="F6">
         <v>0.0</v>
       </c>
       <c r="G6">
-        <v>262</v>
+        <v>23891</v>
       </c>
       <c r="H6">
-        <v>0.2649</v>
+        <v>3.3692</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -786,28 +786,28 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>340.0</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>340.0</v>
       </c>
       <c r="F7">
         <v>0.0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>13284</v>
       </c>
       <c r="H7">
-        <v>0.0384</v>
+        <v>2.2493</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -821,28 +821,28 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>82240.0</v>
+        <v>21540.0</v>
       </c>
       <c r="E8">
-        <v>82240.0</v>
+        <v>21540.0</v>
       </c>
       <c r="F8">
         <v>0.0</v>
       </c>
       <c r="G8">
-        <v>161631</v>
+        <v>3986</v>
       </c>
       <c r="H8">
-        <v>15.9469</v>
+        <v>0.7875</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -856,25 +856,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>51439.565333431616</v>
+        <v>38260.0</v>
       </c>
       <c r="E9">
-        <v>51439.565333431616</v>
+        <v>38259.99999999756</v>
       </c>
       <c r="F9">
         <v>0.0</v>
       </c>
       <c r="G9">
-        <v>621086</v>
+        <v>22212</v>
       </c>
       <c r="H9">
-        <v>50.049</v>
+        <v>2.8554</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -891,28 +891,28 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5880.0</v>
+        <v>56480.0</v>
       </c>
       <c r="E10">
-        <v>5880.0</v>
+        <v>56480.0</v>
       </c>
       <c r="F10">
         <v>0.0</v>
       </c>
       <c r="G10">
-        <v>15795</v>
+        <v>5971</v>
       </c>
       <c r="H10">
-        <v>2.046</v>
+        <v>1.1451</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -926,25 +926,25 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3220.0</v>
+        <v>2640.0</v>
       </c>
       <c r="E11">
-        <v>3220.0</v>
+        <v>2640.0</v>
       </c>
       <c r="F11">
         <v>0.0</v>
       </c>
       <c r="G11">
-        <v>13920</v>
+        <v>23761</v>
       </c>
       <c r="H11">
-        <v>1.2153</v>
+        <v>4.0886</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -961,28 +961,28 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>1520.0</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>1520.0</v>
       </c>
       <c r="F12">
         <v>0.0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>54561</v>
       </c>
       <c r="H12">
-        <v>0.1263</v>
+        <v>6.0668</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -996,28 +996,28 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>34099.998422039476</v>
+        <v>8160.0</v>
       </c>
       <c r="E13">
-        <v>34099.998422039476</v>
+        <v>8160.0</v>
       </c>
       <c r="F13">
         <v>0.0</v>
       </c>
       <c r="G13">
-        <v>17870</v>
+        <v>10373</v>
       </c>
       <c r="H13">
-        <v>2.1505</v>
+        <v>1.454</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1031,28 +1031,28 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9060.0</v>
+        <v>3679.9999996318948</v>
       </c>
       <c r="E14">
-        <v>9060.0</v>
+        <v>3679.9999996318948</v>
       </c>
       <c r="F14">
         <v>0.0</v>
       </c>
       <c r="G14">
-        <v>3231</v>
+        <v>15070</v>
       </c>
       <c r="H14">
-        <v>0.7173</v>
+        <v>1.8173</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1066,28 +1066,28 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0</v>
+        <v>1380.0</v>
       </c>
       <c r="E15">
-        <v>0.0</v>
+        <v>1380.0</v>
       </c>
       <c r="F15">
         <v>0.0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>24069</v>
       </c>
       <c r="H15">
-        <v>0.2282</v>
+        <v>1.758</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2599.9999997393734</v>
+        <v>18740.0</v>
       </c>
       <c r="E16">
-        <v>2599.9999997393734</v>
+        <v>18740.0</v>
       </c>
       <c r="F16">
         <v>0.0</v>
       </c>
       <c r="G16">
-        <v>3031</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0.7072</v>
+        <v>0.2226</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9999999999998888</v>
+        <v>1.0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1136,28 +1136,28 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>12420.0</v>
+        <v>859.9999999104718</v>
       </c>
       <c r="E17">
-        <v>12420.0</v>
+        <v>859.9999999104718</v>
       </c>
       <c r="F17">
         <v>0.0</v>
       </c>
       <c r="G17">
-        <v>1970</v>
+        <v>6060</v>
       </c>
       <c r="H17">
-        <v>0.8047</v>
+        <v>0.7322</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1171,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7380.0</v>
+        <v>4019.99999959644</v>
       </c>
       <c r="E18">
-        <v>7379.999999999907</v>
+        <v>4019.99999959644</v>
       </c>
       <c r="F18">
         <v>0.0</v>
       </c>
       <c r="G18">
-        <v>3328</v>
+        <v>4969</v>
       </c>
       <c r="H18">
-        <v>0.5392</v>
+        <v>0.5329</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1206,28 +1206,28 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2540.0</v>
+        <v>3380.0</v>
       </c>
       <c r="E19">
-        <v>2540.0</v>
+        <v>3380.0</v>
       </c>
       <c r="F19">
         <v>0.0</v>
       </c>
       <c r="G19">
-        <v>7352</v>
+        <v>23221</v>
       </c>
       <c r="H19">
-        <v>0.828</v>
+        <v>2.5408</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1241,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0</v>
+        <v>1080.0</v>
       </c>
       <c r="E20">
-        <v>0.0</v>
+        <v>1080.0</v>
       </c>
       <c r="F20">
         <v>0.0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>18383</v>
       </c>
       <c r="H20">
-        <v>0.0785</v>
+        <v>1.891</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1276,28 +1276,28 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5760.0</v>
+        <v>0.0</v>
       </c>
       <c r="E21">
-        <v>5760.0</v>
+        <v>0.0</v>
       </c>
       <c r="F21">
         <v>0.0</v>
       </c>
       <c r="G21">
-        <v>2404</v>
+        <v>2468</v>
       </c>
       <c r="H21">
-        <v>0.7906</v>
+        <v>0.465</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1311,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3360.0</v>
+        <v>1980.0</v>
       </c>
       <c r="E22">
-        <v>3360.0</v>
+        <v>1980.0</v>
       </c>
       <c r="F22">
         <v>0.0</v>
       </c>
       <c r="G22">
-        <v>5116</v>
+        <v>175399</v>
       </c>
       <c r="H22">
-        <v>0.4576</v>
+        <v>24.6544</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1346,28 +1346,28 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7580.0</v>
+        <v>12480.0</v>
       </c>
       <c r="E23">
-        <v>7580.0</v>
+        <v>12480.0</v>
       </c>
       <c r="F23">
         <v>0.0</v>
       </c>
       <c r="G23">
-        <v>3278</v>
+        <v>70768</v>
       </c>
       <c r="H23">
-        <v>0.4465</v>
+        <v>13.6903</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1381,28 +1381,28 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>27180.0</v>
+        <v>140.0</v>
       </c>
       <c r="E24">
-        <v>27180.0</v>
+        <v>140.0</v>
       </c>
       <c r="F24">
         <v>0.0</v>
       </c>
       <c r="G24">
-        <v>56673</v>
+        <v>13484</v>
       </c>
       <c r="H24">
-        <v>5.4724</v>
+        <v>2.5177</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1416,28 +1416,28 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8780.0</v>
+        <v>5679.999999430892</v>
       </c>
       <c r="E25">
-        <v>8780.0</v>
+        <v>5679.999999430892</v>
       </c>
       <c r="F25">
         <v>0.0</v>
       </c>
       <c r="G25">
-        <v>17234</v>
+        <v>17781</v>
       </c>
       <c r="H25">
-        <v>3.266</v>
+        <v>3.0689</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1451,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>8159.999999183867</v>
+        <v>5800.0</v>
       </c>
       <c r="E26">
-        <v>8159.999999183867</v>
+        <v>5800.0</v>
       </c>
       <c r="F26">
         <v>0.0</v>
       </c>
       <c r="G26">
-        <v>12180</v>
+        <v>50161</v>
       </c>
       <c r="H26">
-        <v>2.2398</v>
+        <v>9.598</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1486,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>3920.0</v>
+        <v>2560.0</v>
       </c>
       <c r="E27">
-        <v>3920.0</v>
+        <v>2560.0</v>
       </c>
       <c r="F27">
         <v>0.0</v>
       </c>
       <c r="G27">
-        <v>16511</v>
+        <v>95792</v>
       </c>
       <c r="H27">
-        <v>2.0028</v>
+        <v>15.2288</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1521,28 +1521,28 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0.0</v>
+        <v>6820.0</v>
       </c>
       <c r="E28">
-        <v>0.0</v>
+        <v>6820.0</v>
       </c>
       <c r="F28">
         <v>0.0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>63136</v>
       </c>
       <c r="H28">
-        <v>0.0306</v>
+        <v>13.1877</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1556,28 +1556,28 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>27700.0</v>
+        <v>5580.0</v>
       </c>
       <c r="E29">
-        <v>27700.0</v>
+        <v>5579.999999999261</v>
       </c>
       <c r="F29">
         <v>0.0</v>
       </c>
       <c r="G29">
-        <v>21819</v>
+        <v>83834</v>
       </c>
       <c r="H29">
-        <v>3.775</v>
+        <v>15.2359</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1591,28 +1591,28 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>6660.0</v>
+        <v>2260.0</v>
       </c>
       <c r="E30">
-        <v>6660.0</v>
+        <v>2260.0</v>
       </c>
       <c r="F30">
         <v>0.0</v>
       </c>
       <c r="G30">
-        <v>22852</v>
+        <v>50258</v>
       </c>
       <c r="H30">
-        <v>2.5825</v>
+        <v>9.0118</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1626,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>19480.0</v>
+        <v>440.0</v>
       </c>
       <c r="E31">
-        <v>19480.0</v>
+        <v>440.0</v>
       </c>
       <c r="F31">
         <v>0.0</v>
       </c>
       <c r="G31">
-        <v>32185</v>
+        <v>35183</v>
       </c>
       <c r="H31">
-        <v>2.7998</v>
+        <v>7.1344</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1647,7 +1647,7 @@
         <v>3.0</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1661,28 +1661,28 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>57840.0</v>
+        <v>117440.0</v>
       </c>
       <c r="E32">
-        <v>57840.0</v>
+        <v>117440.0</v>
       </c>
       <c r="F32">
         <v>0.0</v>
       </c>
       <c r="G32">
-        <v>32632</v>
+        <v>25104</v>
       </c>
       <c r="H32">
-        <v>2.4326</v>
+        <v>4.725</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1696,25 +1696,25 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>27360.0</v>
+        <v>133659.9387002051</v>
       </c>
       <c r="E33">
-        <v>27360.0</v>
+        <v>133659.9387002051</v>
       </c>
       <c r="F33">
         <v>0.0</v>
       </c>
       <c r="G33">
-        <v>3693</v>
+        <v>802839</v>
       </c>
       <c r="H33">
-        <v>0.4451</v>
+        <v>77.3059</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>3.0</v>
+        <v>6.9999995014943615</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>6999.9999992998455</v>
+        <v>119020.0</v>
       </c>
       <c r="E34">
-        <v>6999.9999992998455</v>
+        <v>119020.0</v>
       </c>
       <c r="F34">
         <v>0.0</v>
       </c>
       <c r="G34">
-        <v>1016</v>
+        <v>48603</v>
       </c>
       <c r="H34">
-        <v>0.2422</v>
+        <v>8.2209</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1766,25 +1766,25 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>10340.0</v>
+        <v>178400.0</v>
       </c>
       <c r="E35">
-        <v>10340.0</v>
+        <v>178399.99847396745</v>
       </c>
       <c r="F35">
         <v>0.0</v>
       </c>
       <c r="G35">
-        <v>1437</v>
+        <v>100928</v>
       </c>
       <c r="H35">
-        <v>0.299</v>
+        <v>14.0258</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -1801,25 +1801,25 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>4580.0</v>
+        <v>67660.0</v>
       </c>
       <c r="E36">
-        <v>4580.0</v>
+        <v>67660.0</v>
       </c>
       <c r="F36">
         <v>0.0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>277312</v>
       </c>
       <c r="H36">
-        <v>0.1296</v>
+        <v>39.2899</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -1836,25 +1836,25 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>8000.0</v>
+        <v>127660.0</v>
       </c>
       <c r="E37">
-        <v>8000.0</v>
+        <v>127660.0</v>
       </c>
       <c r="F37">
         <v>0.0</v>
       </c>
       <c r="G37">
-        <v>2215</v>
+        <v>215768</v>
       </c>
       <c r="H37">
-        <v>0.4982</v>
+        <v>29.0503</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>6340.0</v>
+        <v>108120.0</v>
       </c>
       <c r="E38">
-        <v>6340.0</v>
+        <v>108120.0</v>
       </c>
       <c r="F38">
         <v>0.0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>166636</v>
       </c>
       <c r="H38">
-        <v>0.0888</v>
+        <v>17.9248</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1906,28 +1906,28 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>63680.0</v>
+        <v>190338.30707523454</v>
       </c>
       <c r="E39">
-        <v>63680.0</v>
+        <v>190338.30707523454</v>
       </c>
       <c r="F39">
         <v>0.0</v>
       </c>
       <c r="G39">
-        <v>26712</v>
+        <v>18217</v>
       </c>
       <c r="H39">
-        <v>1.5968</v>
+        <v>2.8954</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>5.0</v>
+        <v>6.000000001249999</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1941,25 +1941,25 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>7060.0</v>
+        <v>139420.0</v>
       </c>
       <c r="E40">
-        <v>7059.999999999066</v>
+        <v>139420.0</v>
       </c>
       <c r="F40">
         <v>0.0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>71698</v>
       </c>
       <c r="H40">
-        <v>0.1339</v>
+        <v>9.9495</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -1976,25 +1976,25 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>24480.0</v>
+        <v>91700.0</v>
       </c>
       <c r="E41">
-        <v>24480.0</v>
+        <v>91700.0</v>
       </c>
       <c r="F41">
         <v>0.0</v>
       </c>
       <c r="G41">
-        <v>3063</v>
+        <v>107219</v>
       </c>
       <c r="H41">
-        <v>0.484</v>
+        <v>15.6721</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -2011,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>37280.0</v>
+        <v>38540.0</v>
       </c>
       <c r="E42">
-        <v>37280.0</v>
+        <v>38540.0</v>
       </c>
       <c r="F42">
         <v>0.0</v>
       </c>
       <c r="G42">
-        <v>10081</v>
+        <v>56209</v>
       </c>
       <c r="H42">
-        <v>1.2068</v>
+        <v>5.1546</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -2032,7 +2032,7 @@
         <v>3.0</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2046,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>49380.0</v>
+        <v>13320.0</v>
       </c>
       <c r="E43">
-        <v>49380.0</v>
+        <v>13320.0</v>
       </c>
       <c r="F43">
         <v>0.0</v>
       </c>
       <c r="G43">
-        <v>3317</v>
+        <v>24116</v>
       </c>
       <c r="H43">
-        <v>0.6742</v>
+        <v>3.5141</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -2081,28 +2081,28 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.0</v>
+        <v>2800.0</v>
       </c>
       <c r="E44">
-        <v>0.0</v>
+        <v>2800.0</v>
       </c>
       <c r="F44">
         <v>0.0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>54233</v>
       </c>
       <c r="H44">
-        <v>0.2184</v>
+        <v>8.5117</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2116,28 +2116,28 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>12820.0</v>
+        <v>32760.0</v>
       </c>
       <c r="E45">
-        <v>12820.0</v>
+        <v>32760.0</v>
       </c>
       <c r="F45">
         <v>0.0</v>
       </c>
       <c r="G45">
-        <v>6278</v>
+        <v>454032</v>
       </c>
       <c r="H45">
-        <v>0.7685</v>
+        <v>58.6071</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2151,28 +2151,28 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>3300.0</v>
+        <v>28979.819376441417</v>
       </c>
       <c r="E46">
-        <v>3300.0</v>
+        <v>28979.819376441417</v>
       </c>
       <c r="F46">
         <v>0.0</v>
       </c>
       <c r="G46">
-        <v>41</v>
+        <v>517392</v>
       </c>
       <c r="H46">
-        <v>0.5196</v>
+        <v>81.1837</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>1.0</v>
+        <v>2.999998676290616</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2186,19 +2186,19 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>39820.0</v>
+        <v>10760.0</v>
       </c>
       <c r="E47">
-        <v>39820.0</v>
+        <v>10760.0</v>
       </c>
       <c r="F47">
         <v>0.0</v>
       </c>
       <c r="G47">
-        <v>14789</v>
+        <v>55467</v>
       </c>
       <c r="H47">
-        <v>1.3384</v>
+        <v>6.4799</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -2207,7 +2207,7 @@
         <v>3.0</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2221,28 +2221,28 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>3020.0</v>
+        <v>25420.0</v>
       </c>
       <c r="E48">
-        <v>3020.0</v>
+        <v>25419.99968971701</v>
       </c>
       <c r="F48">
         <v>0.0</v>
       </c>
       <c r="G48">
-        <v>5423</v>
+        <v>862579</v>
       </c>
       <c r="H48">
-        <v>0.76</v>
+        <v>104.1868</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2256,25 +2256,25 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>12420.0</v>
+        <v>31100.0</v>
       </c>
       <c r="E49">
-        <v>12420.0</v>
+        <v>31100.0</v>
       </c>
       <c r="F49">
         <v>0.0</v>
       </c>
       <c r="G49">
-        <v>2808</v>
+        <v>21826</v>
       </c>
       <c r="H49">
-        <v>0.9024</v>
+        <v>2.7442</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -2291,28 +2291,28 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>14700.0</v>
+        <v>15560.0</v>
       </c>
       <c r="E50">
-        <v>14700.0</v>
+        <v>15560.0</v>
       </c>
       <c r="F50">
         <v>0.0</v>
       </c>
       <c r="G50">
-        <v>5282</v>
+        <v>9893</v>
       </c>
       <c r="H50">
-        <v>0.9578</v>
+        <v>2.0402</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K50">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>48160.0</v>
+        <v>18060.0</v>
       </c>
       <c r="E51">
-        <v>48160.0</v>
+        <v>18060.0</v>
       </c>
       <c r="F51">
         <v>0.0</v>
       </c>
       <c r="G51">
-        <v>4224</v>
+        <v>51730</v>
       </c>
       <c r="H51">
-        <v>0.6144</v>
+        <v>9.1369</v>
       </c>
       <c r="I51">
         <v>1</v>
